--- a/src/main/resources/arquivos/ORÇAMENTO NF11000 2025-12-10 PAPER&CO.xlsx
+++ b/src/main/resources/arquivos/ORÇAMENTO NF11000 2025-12-10 PAPER&CO.xlsx
@@ -813,7 +813,7 @@
         <v>1.0</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="F17" s="10">
         <f>D17*E17</f>
@@ -834,7 +834,7 @@
         <v>2.0</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="F18" s="10">
         <f t="shared" ref="F18:F58" si="0">D18*E18</f>
@@ -855,7 +855,7 @@
         <v>2.0</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2.5</v>
+        <v>3.15</v>
       </c>
       <c r="F19" s="10">
         <f t="shared" si="0"/>
